--- a/Liste+Bilan contrat/ListeContrats+Bilan/bilanContratsS3.xlsx
+++ b/Liste+Bilan contrat/ListeContrats+Bilan/bilanContratsS3.xlsx
@@ -107,12 +107,12 @@
     <t xml:space="preserve">EC-STP03-ACSA</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">Chimie 3</t>
   </si>
   <si>
@@ -164,6 +164,15 @@
     <t xml:space="preserve">EC-STP03-MECA</t>
   </si>
   <si>
+    <t xml:space="preserve">Stage (UE-STP03-STAG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-STP03-STAG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orientation et Transition (UE-STP03-ORT)</t>
   </si>
   <si>
@@ -216,15 +225,6 @@
   </si>
   <si>
     <t xml:space="preserve">EC-STP03-LV2EC-STP03-FLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage (UE-STP03-STAG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC-STP03-STAG</t>
   </si>
 </sst>
 </file>
@@ -659,46 +659,46 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -707,13 +707,13 @@
         <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
         <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s">
         <v>32</v>
@@ -722,15 +722,15 @@
         <v>31</v>
       </c>
       <c r="AA2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -739,28 +739,28 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
@@ -769,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
         <v>31</v>
@@ -778,22 +778,22 @@
         <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
         <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s">
         <v>31</v>
@@ -802,21 +802,21 @@
         <v>32</v>
       </c>
       <c r="Y3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s">
         <v>31</v>
       </c>
       <c r="AA3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -825,19 +825,19 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -846,22 +846,22 @@
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
         <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
         <v>31</v>
@@ -882,10 +882,10 @@
         <v>31</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y4" t="s">
         <v>32</v>
@@ -894,7 +894,7 @@
         <v>31</v>
       </c>
       <c r="AA4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s">
         <v>32</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -914,7 +914,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
@@ -926,16 +926,16 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -950,19 +950,19 @@
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
         <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V5" t="s">
         <v>32</v>
@@ -974,13 +974,13 @@
         <v>32</v>
       </c>
       <c r="Y5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s">
         <v>31</v>
       </c>
       <c r="AA5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB5" t="s">
         <v>32</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -1012,40 +1012,40 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s">
         <v>31</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -1054,19 +1054,19 @@
         <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="s">
         <v>31</v>
       </c>
       <c r="AA6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="s">
         <v>31</v>
@@ -1092,25 +1092,25 @@
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
         <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1128,39 +1128,39 @@
         <v>31</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s">
         <v>31</v>
       </c>
       <c r="W7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X7" t="s">
         <v>31</v>
       </c>
       <c r="Y7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -1172,7 +1172,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -1181,10 +1181,10 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
@@ -1193,13 +1193,13 @@
         <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
         <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
         <v>31</v>
@@ -1214,31 +1214,31 @@
         <v>31</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s">
         <v>31</v>
       </c>
       <c r="X8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y8" t="s">
         <v>31</v>
       </c>
       <c r="Z8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="s">
         <v>31</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1255,40 +1255,40 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s">
         <v>31</v>
@@ -1297,22 +1297,22 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V9" t="s">
         <v>31</v>
       </c>
       <c r="W9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X9" t="s">
         <v>31</v>
@@ -1321,10 +1321,10 @@
         <v>31</v>
       </c>
       <c r="Z9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB9" t="s">
         <v>31</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -1344,64 +1344,64 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
         <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s">
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s">
         <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y10" t="s">
         <v>31</v>
@@ -1413,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="AB10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1436,10 +1436,10 @@
         <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
@@ -1454,49 +1454,49 @@
         <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" t="s">
         <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" t="s">
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U11" t="s">
         <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W11" t="s">
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y11" t="s">
         <v>32</v>
       </c>
       <c r="Z11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB11" t="s">
         <v>32</v>
@@ -1504,19 +1504,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>31</v>
@@ -1531,78 +1531,78 @@
         <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
         <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
@@ -1617,72 +1617,72 @@
         <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -1691,7 +1691,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1700,61 +1700,61 @@
         <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="s">
         <v>31</v>
       </c>
       <c r="R14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" t="s">
         <v>31</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W14" t="s">
         <v>31</v>
       </c>
       <c r="X14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y14" t="s">
         <v>31</v>
       </c>
       <c r="Z14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB14" t="s">
         <v>31</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -1771,10 +1771,10 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>31</v>
@@ -1789,324 +1789,324 @@
         <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
         <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" t="s">
         <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" t="s">
         <v>31</v>
       </c>
       <c r="S16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R17" t="s">
         <v>31</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V17" t="s">
         <v>31</v>
       </c>
       <c r="W17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="s">
         <v>31</v>
       </c>
       <c r="AB17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -2115,79 +2115,79 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
         <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V19" t="s">
         <v>31</v>
       </c>
       <c r="W19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="s">
         <v>31</v>
       </c>
       <c r="AB19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Liste+Bilan contrat/ListeContrats+Bilan/bilanContratsS3.xlsx
+++ b/Liste+Bilan contrat/ListeContrats+Bilan/bilanContratsS3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">UE</t>
   </si>
@@ -23,79 +23,100 @@
     <t xml:space="preserve">Code.EC</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom1 Prenom1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom2 Prenom2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom3 Prenom3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom4 Prenom4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom5 Prenom5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom6 Prenom6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom7 Prenom7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom8 Prenom8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom9 Prenom9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom10 Prenom10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom11 Prenom11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom12 Prenom12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom13 Prenom13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom14 Prenom14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom15 Prenom15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom16 Prenom16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom17 Prenom17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom18 Prenom18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom19 Prenom19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom20 Prenom20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom21 Prenom21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom22 Prenom22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom23 Prenom23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom24 Prenom24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom25 Prenom25</t>
+    <t xml:space="preserve">Durand_Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garnier_Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fournier_Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fournier_Inès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulin_Inès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roux_Jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garnier_Inès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon_Alice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia_Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leroy_Zoé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel_Jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit_Arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertrand_Nathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent_Louis_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel_Léo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard_Jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevalier_Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morin_Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit_Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard_Louise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulin_Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubois_Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fournier_Arthur_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leroy_Chloé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roux_Léo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger_Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fournier_Zoé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert_Noah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas_Inès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garnier_Camille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert_Camille_2</t>
   </si>
   <si>
     <t xml:space="preserve">Sciences expérimentales (UE-STP03-SE)</t>
@@ -107,10 +128,10 @@
     <t xml:space="preserve">EC-STP03-ACSA</t>
   </si>
   <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">Chimie 3</t>
@@ -641,1553 +662,1952 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB16" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="X17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Z17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AA17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB17" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="T18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="X18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB18" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB19" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
